--- a/Auswertungen/EnergieVerlustVergleich.xlsx
+++ b/Auswertungen/EnergieVerlustVergleich.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3 Schule\Next\Auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B49F7EE-4EB3-44E2-86FF-44D825ECDA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163C6AD2-85CA-47F6-9FBF-6B3703567F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB3ED3B1-9FAF-4FC8-B164-7AFB9A45769F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{DB3ED3B1-9FAF-4FC8-B164-7AFB9A45769F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>Euler:</t>
   </si>
@@ -52,13 +53,43 @@
   </si>
   <si>
     <t>Solar System with 2 objects:</t>
+  </si>
+  <si>
+    <t>EnergieVerlust</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>NASA:</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>Leapfrog:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +136,13 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -223,23 +261,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -249,10 +288,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Dezimal [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Prozent" xfId="5" builtinId="5"/>
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -568,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B721DBF9-AE77-4BFB-BF9C-ABE22F67535F}">
   <dimension ref="A2:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,31 +627,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -629,297 +676,229 @@
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="6"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
+      <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5" t="s">
+      <c r="O9" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10">
         <v>100000</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>-8.6368983495103798E+30</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
+      <c r="I10">
         <v>10</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10">
         <v>100000</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5">
+      <c r="O10">
         <v>10</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10">
         <v>100000</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <v>3.3018388667247001E+27</v>
       </c>
-      <c r="R10" s="6"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>100</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11">
         <v>10000</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>-1.05465784151321E+30</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5">
+      <c r="I11">
         <v>100</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <v>10000</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5">
+      <c r="O11">
         <v>100</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11">
         <v>10000</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <v>-2.5090178695766899E+26</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
-      <c r="D12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="6">
         <v>-1.0764205093716899E+29</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q12" s="10">
+      <c r="I12">
+        <v>1000</v>
+      </c>
+      <c r="J12">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="O12">
+        <v>1000</v>
+      </c>
+      <c r="P12">
+        <v>1000</v>
+      </c>
+      <c r="Q12" s="9">
         <v>-3.1410744913864503E+26</v>
       </c>
-      <c r="R12" s="6"/>
+      <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>10000</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13">
         <v>100</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>-1.1067427619372699E+28</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5">
+      <c r="I13">
         <v>10000</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13">
         <v>100</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5">
+      <c r="O13">
         <v>10000</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13">
         <v>100</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="9">
         <v>-3.1577904120513702E+26</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>100000</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14">
         <v>10</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>-1.39125116563088E+27</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5">
+      <c r="I14">
         <v>100000</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14">
         <v>10</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5">
+      <c r="O14">
         <v>100000</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14">
         <v>10</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="9">
         <v>-3.1589778693196503E+26</v>
       </c>
-      <c r="R14" s="6"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>1000000</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>-4.2344627093166798E+26</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5">
+      <c r="I15">
         <v>1000000</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5">
+      <c r="O15">
         <v>1000000</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15">
         <v>1</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="9">
         <v>-3.1589778693196503E+26</v>
       </c>
-      <c r="R15" s="6"/>
+      <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="3:18" x14ac:dyDescent="0.25">
@@ -944,265 +923,172 @@
       <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="6"/>
+      <c r="R19" s="5"/>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="6"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
-      <c r="D21" s="5" t="s">
+      <c r="D21" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
+      <c r="I21" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5" t="s">
+      <c r="O21" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="6"/>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
-      <c r="D22" s="5">
+      <c r="D22">
         <v>100</v>
       </c>
-      <c r="E22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="8">
         <v>-1.0612612550616101E+28</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5">
+      <c r="I22">
         <v>100</v>
       </c>
-      <c r="J22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5">
+      <c r="J22">
+        <v>1000</v>
+      </c>
+      <c r="O22">
         <v>100</v>
       </c>
-      <c r="P22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q22" s="9">
+      <c r="P22">
+        <v>1000</v>
+      </c>
+      <c r="Q22" s="8">
         <v>-3.0389073953308698E+24</v>
       </c>
-      <c r="R22" s="6"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
-      <c r="D23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="8">
         <v>-1.0764205093716899E+29</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="J23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q23" s="9">
+      <c r="I23">
+        <v>1000</v>
+      </c>
+      <c r="J23">
+        <v>1000</v>
+      </c>
+      <c r="O23">
+        <v>1000</v>
+      </c>
+      <c r="P23">
+        <v>1000</v>
+      </c>
+      <c r="Q23" s="8">
         <v>-3.1410744913864503E+26</v>
       </c>
-      <c r="R23" s="6"/>
+      <c r="R23" s="5"/>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
-      <c r="D24" s="5">
+      <c r="D24">
         <v>10000</v>
       </c>
-      <c r="E24" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="E24">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="8">
         <v>-5.0808676712390502E+29</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5">
+      <c r="I24">
         <v>10000</v>
       </c>
-      <c r="J24" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5">
+      <c r="J24">
+        <v>1000</v>
+      </c>
+      <c r="O24">
         <v>10000</v>
       </c>
-      <c r="P24" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q24" s="9">
+      <c r="P24">
+        <v>1000</v>
+      </c>
+      <c r="Q24" s="8">
         <v>-2.2289168546143998E+28</v>
       </c>
-      <c r="R24" s="6"/>
+      <c r="R24" s="5"/>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
-      <c r="D25" s="5">
+      <c r="D25">
         <v>100000</v>
       </c>
-      <c r="E25" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F25" s="9">
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="8">
         <v>-5.2766817725895399E+29</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5">
+      <c r="I25">
         <v>100000</v>
       </c>
-      <c r="J25" s="5">
-        <v>1000</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5">
+      <c r="J25">
+        <v>1000</v>
+      </c>
+      <c r="O25">
         <v>100000</v>
       </c>
-      <c r="P25" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Q25" s="9">
+      <c r="P25">
+        <v>1000</v>
+      </c>
+      <c r="Q25" s="8">
         <v>-1.1254476863528001E+28</v>
       </c>
-      <c r="R25" s="6"/>
+      <c r="R25" s="5"/>
     </row>
     <row r="26" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="13"/>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="12"/>
     </row>
     <row r="30" spans="3:18" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="3:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1230,4 +1116,326 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9757DFD2-04D7-4074-A8E6-86A76DA00322}">
+  <dimension ref="D2:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="16">
+        <v>43831</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16">
+        <v>44197</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8">
+        <v>-25453343414.131401</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8">
+        <v>-27790490356.9589</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
+        <v>-27411475609.0196</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8">
+        <v>146091299360.686</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
+        <v>145531279592.33899</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8">
+        <v>145269749964.616</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-2712536.2576693301</v>
+      </c>
+      <c r="G5" s="8">
+        <v>8814216.7241573296</v>
+      </c>
+      <c r="I5" s="8">
+        <v>19074993.062935699</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>43831</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
+        <v>44197</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16">
+        <v>44562</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8">
+        <v>-25453343414.131401</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8">
+        <v>-25967400000</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8">
+        <v>-23752429820</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8">
+        <v>-1.68598178371338E+34</v>
+      </c>
+      <c r="L8" s="18">
+        <v>-8.7210002980000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8">
+        <v>146091299360.686</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
+        <v>145894000000</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
+        <v>145957813900</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8">
+        <v>-2712536.2576693301</v>
+      </c>
+      <c r="G10" s="8">
+        <v>-2716800</v>
+      </c>
+      <c r="I10">
+        <v>-2255449.5120000001</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <f>SQRT((G3-G8)^2+(G4-G9)^2+(G5-G10)^2)</f>
+        <v>1858859195.3445516</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <f>SQRT((I3-I8)^2+(I4-I9)^2+(I5-I10)^2)</f>
+        <v>3723238248.2321258</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="19">
+        <f>G12/1000</f>
+        <v>1858859.1953445515</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="19">
+        <f>I12/1000</f>
+        <v>3723238.2482321258</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="18">
+        <f>G12/SQRT(G3^2+G4^2+G5^2)</f>
+        <v>1.2546216085477551E-2</v>
+      </c>
+      <c r="I14" s="18">
+        <f>I12/SQRT(I3^2+I4^2+I5^2)</f>
+        <v>2.5185379885386081E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="16">
+        <v>43831</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
+        <v>44197</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16">
+        <v>44562</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-25453343414.131401</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
+        <v>-25968868900</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8">
+        <v>-23755348570</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8">
+        <v>-1.68406108071533E+34</v>
+      </c>
+      <c r="L17" s="18">
+        <v>-8.7110651659999996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8">
+        <v>146091299360.686</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <v>145893837200</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8">
+        <v>145956842800</v>
+      </c>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8">
+        <v>-2712536.2576693301</v>
+      </c>
+      <c r="G19" s="8">
+        <v>-2715851.3360000001</v>
+      </c>
+      <c r="I19">
+        <v>-2254678.6409999998</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <f>SQRT((G3-G17)^2+(G4-G18)^2+(G5-G19)^2)</f>
+        <v>1857386791.6498744</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <f>SQRT((I3-I17)^2+(I4-I18)^2+(I5-I19)^2)</f>
+        <v>3720190377.4916215</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="19">
+        <f>G21/1000</f>
+        <v>1857386.7916498745</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="19">
+        <f>I21/1000</f>
+        <v>3720190.3774916213</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="18">
+        <f>G21/SQRT(G3^2+G4^2+G5^2)</f>
+        <v>1.2536278218766215E-2</v>
+      </c>
+      <c r="I23" s="18">
+        <f>I21/SQRT(I3^2+I4^2+I5^2)</f>
+        <v>2.5164762944614807E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Auswertungen/EnergieVerlustVergleich.xlsx
+++ b/Auswertungen/EnergieVerlustVergleich.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3 Schule\Next\Auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163C6AD2-85CA-47F6-9FBF-6B3703567F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F280D193-AE5D-4B82-843E-FAF0B7E32A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{DB3ED3B1-9FAF-4FC8-B164-7AFB9A45769F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DB3ED3B1-9FAF-4FC8-B164-7AFB9A45769F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Vergleich" sheetId="1" r:id="rId1"/>
+    <sheet name="NASA Vergleich" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>Euler:</t>
   </si>
@@ -81,15 +81,31 @@
   <si>
     <t>Leapfrog:</t>
   </si>
+  <si>
+    <t>DeltaTime:</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Euler</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +164,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,8 +210,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -260,16 +304,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -288,14 +378,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="11" xfId="6" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
+    <cellStyle name="Ausgabe" xfId="6" builtinId="21"/>
     <cellStyle name="Dezimal [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -1120,322 +1232,1548 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9757DFD2-04D7-4074-A8E6-86A76DA00322}">
-  <dimension ref="D2:L23"/>
+  <dimension ref="B1:AJ45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="16">
+      <c r="D2" s="37">
         <v>43831</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16">
+      <c r="E2" s="20"/>
+      <c r="F2" s="37">
         <v>44197</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16">
+      <c r="G2" s="20"/>
+      <c r="H2" s="38">
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8">
+      <c r="D3" s="28">
         <v>-25453343414.131401</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
         <v>-27790490356.9589</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8">
+      <c r="G3" s="28"/>
+      <c r="H3" s="21">
         <v>-27411475609.0196</v>
       </c>
     </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8">
+      <c r="D4" s="28">
         <v>146091299360.686</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28">
         <v>145531279592.33899</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8">
+      <c r="G4" s="28"/>
+      <c r="H4" s="21">
         <v>145269749964.616</v>
       </c>
     </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8">
+      <c r="D5" s="22">
         <v>-2712536.2576693301</v>
       </c>
-      <c r="G5" s="8">
+      <c r="E5" s="11"/>
+      <c r="F5" s="22">
         <v>8814216.7241573296</v>
       </c>
-      <c r="I5" s="8">
+      <c r="G5" s="11"/>
+      <c r="H5" s="23">
         <v>19074993.062935699</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
+    <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="24">
+        <v>86400</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="24">
+        <v>86400</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="16"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="35">
         <v>43831</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16">
+      <c r="E11" s="27"/>
+      <c r="F11" s="35">
         <v>44197</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16">
+      <c r="G11" s="27"/>
+      <c r="H11" s="35">
         <v>44562</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17" t="s">
+      <c r="I11" s="27"/>
+      <c r="J11" s="36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="35">
+        <v>43831</v>
+      </c>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="35">
+        <v>44197</v>
+      </c>
+      <c r="R11" s="27"/>
+      <c r="S11" s="35">
+        <v>44562</v>
+      </c>
+      <c r="T11" s="27"/>
+      <c r="U11" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8">
+      <c r="D12" s="28">
         <v>-25453343414.131401</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28">
+        <v>-25732063780</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28">
+        <v>-23281587400</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28">
+        <v>-1.7382640739096099E+34</v>
+      </c>
+      <c r="K12" s="25">
+        <v>-8.9914384920000007E-2</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="28">
+        <v>-25453343414.131401</v>
+      </c>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28">
+        <v>-25876440010</v>
+      </c>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28">
+        <v>-23570300000</v>
+      </c>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28">
+        <v>-1.6842533050924399E+34</v>
+      </c>
+      <c r="V12" s="25">
+        <v>-8.7120594760000003E-2</v>
+      </c>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="28">
+        <v>146091299360.686</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28">
+        <v>145931024100</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28">
+        <v>146047281300</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="28">
+        <v>146091299360.686</v>
+      </c>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28">
+        <v>145909864400</v>
+      </c>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28">
+        <v>145986000000</v>
+      </c>
+      <c r="T13" s="28"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="28">
+        <v>-2712536.2576693301</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="28">
+        <v>-2748388.6379999998</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26">
+        <v>-2286299.568</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="28">
+        <v>-2712536.2576693301</v>
+      </c>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="28">
+        <v>-2722235.0920000002</v>
+      </c>
+      <c r="R14" s="26"/>
+      <c r="S14" s="28">
+        <v>-2265830</v>
+      </c>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26">
+        <f>SQRT(($F$3-F12)^2+($F$4-F13)^2+($F$5-F14)^2)</f>
+        <v>2096914241.9227929</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="26">
+        <f>SQRT(($H$3-H12)^2+($H$4-H13)^2+($H$5-H14)^2)</f>
+        <v>4202497816.9329267</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26">
+        <f>SQRT(($F$3-Q12)^2+($F$4-Q13)^2+($F$5-Q14)^2)</f>
+        <v>1951165876.3430951</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="26">
+        <f>SQRT(($H$3-S12)^2+($H$4-S13)^2+($H$5-S14)^2)</f>
+        <v>3907441567.4765611</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="26"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="18">
+        <f>F16/1000</f>
+        <v>2096914.241922793</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="18">
+        <f>H16/1000</f>
+        <v>4202497.8169329269</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="18">
+        <f>Q16/1000</f>
+        <v>1951165.876343095</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="18">
+        <f>S16/1000</f>
+        <v>3907441.5674765613</v>
+      </c>
+      <c r="T17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="U17" s="26"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="19">
+        <f>F16/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
+        <v>1.415294889347565E-2</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="19">
+        <f>H16/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
+        <v>2.8427271351012064E-2</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="19">
+        <f>Q16/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
+        <v>1.3169232378933984E-2</v>
+      </c>
+      <c r="R18" s="11"/>
+      <c r="S18" s="19">
+        <f>S16/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
+        <v>2.6431400220916036E-2</v>
+      </c>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="2">
+        <v>3600</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="35">
+        <v>43831</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="35">
+        <v>44197</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="35">
+        <v>44562</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="35">
+        <v>43831</v>
+      </c>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="35">
+        <v>44197</v>
+      </c>
+      <c r="R24" s="27"/>
+      <c r="S24" s="35">
+        <v>44562</v>
+      </c>
+      <c r="T24" s="27"/>
+      <c r="U24" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="28">
+        <v>-25453343414.131401</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28">
         <v>-25967400000</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8">
+      <c r="G25" s="28"/>
+      <c r="H25" s="28">
         <v>-23752429820</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8">
+      <c r="I25" s="28"/>
+      <c r="J25" s="28">
         <v>-1.68598178371338E+34</v>
       </c>
-      <c r="L8" s="18">
+      <c r="K25" s="25">
         <v>-8.7210002980000007E-2</v>
       </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+      <c r="L25" s="5"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="28">
+        <v>-25453343414.131401</v>
+      </c>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28">
+        <v>-25968868900</v>
+      </c>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28">
+        <v>-23755348570</v>
+      </c>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28">
+        <v>-1.68406108071533E+34</v>
+      </c>
+      <c r="V25" s="25">
+        <v>-8.7110651659999996E-2</v>
+      </c>
+      <c r="W25" s="5"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="8">
+      <c r="D26" s="28">
         <v>146091299360.686</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
+      <c r="E26" s="28"/>
+      <c r="F26" s="28">
         <v>145894000000</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
+      <c r="G26" s="28"/>
+      <c r="H26" s="28">
         <v>145957813900</v>
       </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="I26" s="28"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O26" s="28">
+        <v>146091299360.686</v>
+      </c>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28">
+        <v>145893837200</v>
+      </c>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28">
+        <v>145956842800</v>
+      </c>
+      <c r="T26" s="28"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8">
+      <c r="D27" s="28">
         <v>-2712536.2576693301</v>
       </c>
-      <c r="G10" s="8">
+      <c r="E27" s="26"/>
+      <c r="F27" s="28">
         <v>-2716800</v>
       </c>
-      <c r="I10">
+      <c r="G27" s="26"/>
+      <c r="H27" s="28">
         <v>-2255449.5120000001</v>
       </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="28">
+        <v>-2712536.2576693301</v>
+      </c>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="28">
+        <v>-2715851.3360000001</v>
+      </c>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26">
+        <v>-2254678.6409999998</v>
+      </c>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G12">
-        <f>SQRT((G3-G8)^2+(G4-G9)^2+(G5-G10)^2)</f>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26">
+        <f>SQRT(($F$3-F25)^2+($F$4-F26)^2+($F$5-F27)^2)</f>
         <v>1858859195.3445516</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G29" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I12">
-        <f>SQRT((I3-I8)^2+(I4-I9)^2+(I5-I10)^2)</f>
+      <c r="H29" s="26">
+        <f>SQRT(($H$3-H25)^2+($H$4-H26)^2+($H$5-H27)^2)</f>
         <v>3723238248.2321258</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I29" s="26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G13" s="19">
-        <f>G12/1000</f>
+      <c r="J29" s="26"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26">
+        <f>SQRT(($F$3-Q25)^2+($F$4-Q26)^2+($F$5-Q27)^2)</f>
+        <v>1857386791.6498744</v>
+      </c>
+      <c r="R29" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="S29" s="26">
+        <f>SQRT(($H$3-S25)^2+($H$4-S26)^2+($H$5-S27)^2)</f>
+        <v>3720190377.4916215</v>
+      </c>
+      <c r="T29" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="U29" s="26"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="18">
+        <f>F29/1000</f>
         <v>1858859.1953445515</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G30" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="19">
-        <f>I12/1000</f>
+      <c r="H30" s="18">
+        <f>H29/1000</f>
         <v>3723238.2482321258</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I30" s="26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G14" s="18">
-        <f>G12/SQRT(G3^2+G4^2+G5^2)</f>
+      <c r="J30" s="26"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="18">
+        <f>Q29/1000</f>
+        <v>1857386.7916498745</v>
+      </c>
+      <c r="R30" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="S30" s="18">
+        <f>S29/1000</f>
+        <v>3720190.3774916213</v>
+      </c>
+      <c r="T30" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="U30" s="26"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="19">
+        <f>F29/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
         <v>1.2546216085477551E-2</v>
       </c>
-      <c r="I14" s="18">
-        <f>I12/SQRT(I3^2+I4^2+I5^2)</f>
+      <c r="G31" s="11"/>
+      <c r="H31" s="19">
+        <f>H29/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
         <v>2.5185379885386081E-2</v>
       </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="16">
-        <v>43831</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16">
-        <v>44197</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16">
-        <v>44562</v>
-      </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8">
-        <v>-25453343414.131401</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8">
-        <v>-25968868900</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8">
-        <v>-23755348570</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8">
-        <v>-1.68406108071533E+34</v>
-      </c>
-      <c r="L17" s="18">
-        <v>-8.7110651659999996E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="8">
-        <v>146091299360.686</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8">
-        <v>145893837200</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8">
-        <v>145956842800</v>
-      </c>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="8">
-        <v>-2712536.2576693301</v>
-      </c>
-      <c r="G19" s="8">
-        <v>-2715851.3360000001</v>
-      </c>
-      <c r="I19">
-        <v>-2254678.6409999998</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21">
-        <f>SQRT((G3-G17)^2+(G4-G18)^2+(G5-G19)^2)</f>
-        <v>1857386791.6498744</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21">
-        <f>SQRT((I3-I17)^2+(I4-I18)^2+(I5-I19)^2)</f>
-        <v>3720190377.4916215</v>
-      </c>
-      <c r="J21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G22" s="19">
-        <f>G21/1000</f>
-        <v>1857386.7916498745</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="19">
-        <f>I21/1000</f>
-        <v>3720190.3774916213</v>
-      </c>
-      <c r="J22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="18">
-        <f>G21/SQRT(G3^2+G4^2+G5^2)</f>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="19">
+        <f>Q29/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
         <v>1.2536278218766215E-2</v>
       </c>
-      <c r="I23" s="18">
-        <f>I21/SQRT(I3^2+I4^2+I5^2)</f>
+      <c r="R31" s="11"/>
+      <c r="S31" s="19">
+        <f>S29/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
         <v>2.5164762944614807E-2</v>
       </c>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="5"/>
+    </row>
+    <row r="32" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="12"/>
+    </row>
+    <row r="33" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+    </row>
+    <row r="34" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+    </row>
+    <row r="35" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+    </row>
+    <row r="36" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+    </row>
+    <row r="37" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C37" s="26"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+    </row>
+    <row r="38" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C38" s="26"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+    </row>
+    <row r="39" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C39" s="26"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+    </row>
+    <row r="40" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C40" s="26"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+    </row>
+    <row r="41" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="26"/>
+    </row>
+    <row r="42" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="26"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
+    </row>
+    <row r="43" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="26"/>
+      <c r="AE43" s="26"/>
+      <c r="AF43" s="26"/>
+      <c r="AG43" s="26"/>
+      <c r="AH43" s="26"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="26"/>
+    </row>
+    <row r="44" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+    </row>
+    <row r="45" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="26"/>
+      <c r="AB45" s="26"/>
+      <c r="AC45" s="26"/>
+      <c r="AD45" s="26"/>
+      <c r="AE45" s="26"/>
+      <c r="AF45" s="26"/>
+      <c r="AG45" s="26"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="26"/>
+      <c r="AJ45" s="26"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F18:H18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:H31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:H44">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:S18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31:S31">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q44:S44">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Auswertungen/EnergieVerlustVergleich.xlsx
+++ b/Auswertungen/EnergieVerlustVergleich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3 Schule\Next\Auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F280D193-AE5D-4B82-843E-FAF0B7E32A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D325FD-2AB9-4011-9E2E-790A663FC853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DB3ED3B1-9FAF-4FC8-B164-7AFB9A45769F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="23">
   <si>
     <t>Euler:</t>
   </si>
@@ -105,7 +105,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,14 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -216,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -349,6 +341,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -359,7 +401,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -388,23 +430,22 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="11" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="9" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="6" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="9" xfId="6" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="10" xfId="6" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="11" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Ausgabe" xfId="6" builtinId="21"/>
@@ -1232,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9757DFD2-04D7-4074-A8E6-86A76DA00322}">
-  <dimension ref="B1:AJ45"/>
+  <dimension ref="B1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,59 +1286,59 @@
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="28">
         <v>43831</v>
       </c>
       <c r="E2" s="20"/>
-      <c r="F2" s="37">
+      <c r="F2" s="28">
         <v>44197</v>
       </c>
       <c r="G2" s="20"/>
-      <c r="H2" s="38">
+      <c r="H2" s="29">
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="8">
         <v>-25453343414.131401</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
         <v>-27790490356.9589</v>
       </c>
-      <c r="G3" s="28"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="21">
         <v>-27411475609.0196</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="8">
         <v>146091299360.686</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
         <v>145531279592.33899</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="21">
         <v>145269749964.616</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
@@ -1313,15 +1354,12 @@
         <v>19074993.062935699</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1334,11 +1372,10 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="1" t="s">
+      <c r="L7" s="35"/>
+      <c r="N7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1347,9 +1384,10 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W7" s="2"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -1369,363 +1407,290 @@
       <c r="H8" s="16"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="1" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="24">
+      <c r="P8" s="24">
         <v>86400</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="R8" s="16">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="2"/>
+      <c r="T8" s="16"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V8" s="2"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="26"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="5"/>
+      <c r="L9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="R9" s="17"/>
+      <c r="T9" s="17"/>
       <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="5"/>
+      <c r="L10" s="36"/>
+      <c r="N10" s="36"/>
       <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="35">
+      <c r="D11" s="30">
         <v>43831</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="35">
+      <c r="E11" s="31"/>
+      <c r="F11" s="30">
         <v>44197</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="35">
+      <c r="G11" s="31"/>
+      <c r="H11" s="30">
         <v>44562</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="36" t="s">
+      <c r="I11" s="31"/>
+      <c r="J11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="35">
+      <c r="L11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="P11" s="30">
         <v>43831</v>
       </c>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="35">
+      <c r="Q11" s="31"/>
+      <c r="R11" s="30">
         <v>44197</v>
       </c>
-      <c r="R11" s="27"/>
-      <c r="S11" s="35">
+      <c r="S11" s="31"/>
+      <c r="T11" s="30">
         <v>44562</v>
       </c>
-      <c r="T11" s="27"/>
-      <c r="U11" s="36" t="s">
+      <c r="U11" s="31"/>
+      <c r="V11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="8">
         <v>-25453343414.131401</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8">
         <v>-25732063780</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
         <v>-23281587400</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8">
         <v>-1.7382640739096099E+34</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="26">
         <v>-8.9914384920000007E-2</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
+      <c r="L12" s="37"/>
+      <c r="N12" s="36"/>
+      <c r="O12" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="28">
+      <c r="P12" s="8">
         <v>-25453343414.131401</v>
       </c>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28">
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8">
         <v>-25876440010</v>
       </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28">
+      <c r="S12" s="8"/>
+      <c r="T12" s="8">
         <v>-23570300000</v>
       </c>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28">
+      <c r="U12" s="8"/>
+      <c r="V12" s="8">
         <v>-1.6842533050924399E+34</v>
       </c>
-      <c r="V12" s="25">
+      <c r="W12" s="25">
         <v>-8.7120594760000003E-2</v>
       </c>
-      <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="8">
         <v>146091299360.686</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
         <v>145931024100</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
         <v>146047281300</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4" t="s">
+      <c r="I13" s="8"/>
+      <c r="L13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="28">
+      <c r="P13" s="8">
         <v>146091299360.686</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28">
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8">
         <v>145909864400</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28">
+      <c r="S13" s="8"/>
+      <c r="T13" s="8">
         <v>145986000000</v>
       </c>
-      <c r="T13" s="28"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="5"/>
+      <c r="U13" s="8"/>
       <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="8">
         <v>-2712536.2576693301</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="28">
+      <c r="F14" s="8">
         <v>-2748388.6379999998</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26">
+      <c r="H14">
         <v>-2286299.568</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4" t="s">
+      <c r="L14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="28">
+      <c r="P14" s="8">
         <v>-2712536.2576693301</v>
       </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="28">
+      <c r="R14" s="8">
         <v>-2722235.0920000002</v>
       </c>
-      <c r="R14" s="26"/>
-      <c r="S14" s="28">
+      <c r="T14" s="8">
         <v>-2265830</v>
       </c>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="5"/>
+      <c r="L15" s="36"/>
+      <c r="N15" s="36"/>
       <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26">
+      <c r="F16">
         <f>SQRT(($F$3-F12)^2+($F$4-F13)^2+($F$5-F14)^2)</f>
         <v>2096914241.9227929</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16">
         <f>SQRT(($H$3-H12)^2+($H$4-H13)^2+($H$5-H14)^2)</f>
         <v>4202497816.9329267</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4" t="s">
+      <c r="L16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26">
-        <f>SQRT(($F$3-Q12)^2+($F$4-Q13)^2+($F$5-Q14)^2)</f>
+      <c r="R16">
+        <f>SQRT(($F$3-R12)^2+($F$4-R13)^2+($F$5-R14)^2)</f>
         <v>1951165876.3430951</v>
       </c>
-      <c r="R16" s="26" t="s">
+      <c r="S16" t="s">
         <v>14</v>
       </c>
-      <c r="S16" s="26">
-        <f>SQRT(($H$3-S12)^2+($H$4-S13)^2+($H$5-S14)^2)</f>
+      <c r="T16">
+        <f>SQRT(($H$3-T12)^2+($H$4-T13)^2+($H$5-T14)^2)</f>
         <v>3907441567.4765611</v>
       </c>
-      <c r="T16" s="26" t="s">
+      <c r="U16" t="s">
         <v>14</v>
       </c>
-      <c r="U16" s="26"/>
-      <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
       <c r="F17" s="18">
         <f>F16/1000</f>
         <v>2096914.241922793</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="18">
         <f>H16/1000</f>
         <v>4202497.8169329269</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="18">
-        <f>Q16/1000</f>
+      <c r="L17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="R17" s="18">
+        <f>R16/1000</f>
         <v>1951165.876343095</v>
       </c>
-      <c r="R17" s="26" t="s">
+      <c r="S17" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="18">
-        <f>S16/1000</f>
+      <c r="T17" s="18">
+        <f>T16/1000</f>
         <v>3907441.5674765613</v>
       </c>
-      <c r="T17" s="26" t="s">
+      <c r="U17" t="s">
         <v>15</v>
       </c>
-      <c r="U17" s="26"/>
-      <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -1741,75 +1706,39 @@
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="10"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="36"/>
+      <c r="N18" s="36"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="19">
-        <f>Q16/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="19">
+        <f>R16/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
         <v>1.3169232378933984E-2</v>
       </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="19">
-        <f>S16/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
+      <c r="S18" s="11"/>
+      <c r="T18" s="19">
+        <f>T16/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
         <v>2.6431400220916036E-2</v>
       </c>
-      <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="5"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V18" s="11"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="5"/>
-    </row>
-    <row r="20" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="X19" s="5"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="5"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="L20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
         <v>18</v>
@@ -1829,363 +1758,290 @@
       <c r="H21" s="16"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="1" t="s">
+      <c r="K21" s="2"/>
+      <c r="L21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="2">
+      <c r="P21" s="2">
         <v>3600</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="R21" s="16">
         <v>1</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S21" s="16"/>
-      <c r="T21" s="2"/>
+      <c r="T21" s="16"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="V21" s="2"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="26"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="5"/>
+      <c r="L22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="R22" s="17"/>
+      <c r="T22" s="17"/>
       <c r="W22" s="5"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X22" s="5"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="5"/>
+      <c r="L23" s="36"/>
+      <c r="N23" s="36"/>
       <c r="W23" s="5"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="35">
+      <c r="D24" s="30">
         <v>43831</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="35">
+      <c r="E24" s="31"/>
+      <c r="F24" s="30">
         <v>44197</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="35">
+      <c r="G24" s="31"/>
+      <c r="H24" s="30">
         <v>44562</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="36" t="s">
+      <c r="I24" s="31"/>
+      <c r="J24" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="35">
+      <c r="L24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="P24" s="30">
         <v>43831</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="35">
+      <c r="Q24" s="31"/>
+      <c r="R24" s="30">
         <v>44197</v>
       </c>
-      <c r="R24" s="27"/>
-      <c r="S24" s="35">
+      <c r="S24" s="31"/>
+      <c r="T24" s="30">
         <v>44562</v>
       </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="36" t="s">
+      <c r="U24" s="31"/>
+      <c r="V24" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="V24" s="5"/>
       <c r="W24" s="5"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="8">
         <v>-25453343414.131401</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8">
         <v>-25967400000</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8">
         <v>-23752429820</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28">
+      <c r="I25" s="8"/>
+      <c r="J25" s="8">
         <v>-1.68598178371338E+34</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="26">
         <v>-8.7210002980000007E-2</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4" t="s">
+      <c r="L25" s="37"/>
+      <c r="N25" s="36"/>
+      <c r="O25" t="s">
         <v>10</v>
       </c>
-      <c r="O25" s="28">
+      <c r="P25" s="8">
         <v>-25453343414.131401</v>
       </c>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28">
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8">
         <v>-25968868900</v>
       </c>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28">
+      <c r="S25" s="8"/>
+      <c r="T25" s="8">
         <v>-23755348570</v>
       </c>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28">
+      <c r="U25" s="8"/>
+      <c r="V25" s="8">
         <v>-1.68406108071533E+34</v>
       </c>
-      <c r="V25" s="25">
+      <c r="W25" s="25">
         <v>-8.7110651659999996E-2</v>
       </c>
-      <c r="W25" s="5"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="8">
         <v>146091299360.686</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8">
         <v>145894000000</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28">
+      <c r="G26" s="8"/>
+      <c r="H26" s="8">
         <v>145957813900</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4" t="s">
+      <c r="I26" s="8"/>
+      <c r="L26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" t="s">
         <v>11</v>
       </c>
-      <c r="O26" s="28">
+      <c r="P26" s="8">
         <v>146091299360.686</v>
       </c>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28">
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8">
         <v>145893837200</v>
       </c>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28">
+      <c r="S26" s="8"/>
+      <c r="T26" s="8">
         <v>145956842800</v>
       </c>
-      <c r="T26" s="28"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="5"/>
+      <c r="U26" s="8"/>
       <c r="W26" s="5"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D27" s="8">
         <v>-2712536.2576693301</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="28">
+      <c r="F27" s="8">
         <v>-2716800</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="28">
+      <c r="H27" s="8">
         <v>-2255449.5120000001</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
+      <c r="L27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" t="s">
         <v>12</v>
       </c>
-      <c r="O27" s="28">
+      <c r="P27" s="8">
         <v>-2712536.2576693301</v>
       </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="28">
+      <c r="R27" s="8">
         <v>-2715851.3360000001</v>
       </c>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26">
+      <c r="T27">
         <v>-2254678.6409999998</v>
       </c>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="5"/>
       <c r="W27" s="5"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="5"/>
+      <c r="L28" s="36"/>
+      <c r="N28" s="36"/>
       <c r="W28" s="5"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X28" s="5"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26">
+      <c r="F29">
         <f>SQRT(($F$3-F25)^2+($F$4-F26)^2+($F$5-F27)^2)</f>
         <v>1858859195.3445516</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29">
         <f>SQRT(($H$3-H25)^2+($H$4-H26)^2+($H$5-H27)^2)</f>
         <v>3723238248.2321258</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
+      <c r="L29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" t="s">
         <v>16</v>
       </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26">
-        <f>SQRT(($F$3-Q25)^2+($F$4-Q26)^2+($F$5-Q27)^2)</f>
+      <c r="R29">
+        <f>SQRT(($F$3-R25)^2+($F$4-R26)^2+($F$5-R27)^2)</f>
         <v>1857386791.6498744</v>
       </c>
-      <c r="R29" s="26" t="s">
+      <c r="S29" t="s">
         <v>14</v>
       </c>
-      <c r="S29" s="26">
-        <f>SQRT(($H$3-S25)^2+($H$4-S26)^2+($H$5-S27)^2)</f>
+      <c r="T29">
+        <f>SQRT(($H$3-T25)^2+($H$4-T26)^2+($H$5-T27)^2)</f>
         <v>3720190377.4916215</v>
       </c>
-      <c r="T29" s="26" t="s">
+      <c r="U29" t="s">
         <v>14</v>
       </c>
-      <c r="U29" s="26"/>
-      <c r="V29" s="5"/>
       <c r="W29" s="5"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
       <c r="F30" s="18">
         <f>F29/1000</f>
         <v>1858859.1953445515</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="18">
         <f>H29/1000</f>
         <v>3723238.2482321258</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="18">
-        <f>Q29/1000</f>
+      <c r="L30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="R30" s="18">
+        <f>R29/1000</f>
         <v>1857386.7916498745</v>
       </c>
-      <c r="R30" s="26" t="s">
+      <c r="S30" t="s">
         <v>15</v>
       </c>
-      <c r="S30" s="18">
-        <f>S29/1000</f>
+      <c r="T30" s="18">
+        <f>T29/1000</f>
         <v>3720190.3774916213</v>
       </c>
-      <c r="T30" s="26" t="s">
+      <c r="U30" t="s">
         <v>15</v>
       </c>
-      <c r="U30" s="26"/>
-      <c r="V30" s="5"/>
       <c r="W30" s="5"/>
-    </row>
-    <row r="31" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X30" s="5"/>
+    </row>
+    <row r="31" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
@@ -2201,27 +2057,27 @@
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="10"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="36"/>
+      <c r="N31" s="36"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="19">
-        <f>Q29/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="19">
+        <f>R29/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
         <v>1.2536278218766215E-2</v>
       </c>
-      <c r="R31" s="11"/>
-      <c r="S31" s="19">
-        <f>S29/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
+      <c r="S31" s="11"/>
+      <c r="T31" s="19">
+        <f>T29/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
         <v>2.5164762944614807E-2</v>
       </c>
-      <c r="T31" s="11"/>
       <c r="U31" s="11"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="5"/>
-    </row>
-    <row r="32" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V31" s="11"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="5"/>
+    </row>
+    <row r="32" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2232,9 +2088,8 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="11"/>
+      <c r="L32" s="38"/>
+      <c r="N32" s="38"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
@@ -2243,478 +2098,628 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="12"/>
-    </row>
-    <row r="33" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-      <c r="AE33" s="26"/>
-      <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-    </row>
-    <row r="34" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="26"/>
-      <c r="Z34" s="26"/>
-      <c r="AA34" s="26"/>
-      <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-      <c r="AE34" s="26"/>
-      <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-    </row>
-    <row r="35" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="12"/>
+    </row>
+    <row r="33" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="L33" s="39"/>
+      <c r="N33" s="36"/>
+      <c r="X33" s="5"/>
+    </row>
+    <row r="34" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="16">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="16">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T34" s="16"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="5"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="26"/>
       <c r="H35" s="17"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
-      <c r="Z35" s="26"/>
-      <c r="AA35" s="26"/>
-      <c r="AB35" s="26"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="26"/>
-      <c r="AE35" s="26"/>
-      <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-    </row>
-    <row r="36" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-    </row>
-    <row r="37" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C37" s="26"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="32"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="R35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="30">
+        <v>43831</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="30">
+        <v>44197</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="30">
+        <v>44562</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="30">
+        <v>43831</v>
+      </c>
       <c r="Q37" s="31"/>
-      <c r="R37" s="32"/>
+      <c r="R37" s="30">
+        <v>44197</v>
+      </c>
       <c r="S37" s="31"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-    </row>
-    <row r="38" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C38" s="26"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
-      <c r="AA38" s="26"/>
-      <c r="AB38" s="26"/>
-      <c r="AC38" s="26"/>
-      <c r="AD38" s="26"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
-    </row>
-    <row r="39" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C39" s="26"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="26"/>
-      <c r="AC39" s="26"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-    </row>
-    <row r="40" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C40" s="26"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
-      <c r="AA40" s="26"/>
-      <c r="AB40" s="26"/>
-      <c r="AC40" s="26"/>
-      <c r="AD40" s="26"/>
-      <c r="AE40" s="26"/>
-      <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-    </row>
-    <row r="41" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="26"/>
-    </row>
-    <row r="42" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
-      <c r="AA42" s="26"/>
-      <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="26"/>
-      <c r="AE42" s="26"/>
-      <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-    </row>
-    <row r="43" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="26"/>
-      <c r="AA43" s="26"/>
-      <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
-      <c r="AE43" s="26"/>
-      <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-    </row>
-    <row r="44" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
-      <c r="Y44" s="26"/>
-      <c r="Z44" s="26"/>
-      <c r="AA44" s="26"/>
-      <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-      <c r="AE44" s="26"/>
-      <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-    </row>
-    <row r="45" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
-      <c r="AA45" s="26"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-      <c r="AE45" s="26"/>
-      <c r="AF45" s="26"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
+      <c r="T37" s="30">
+        <v>44562</v>
+      </c>
+      <c r="U37" s="31"/>
+      <c r="V37" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="W37" s="5"/>
+      <c r="X37" s="34"/>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="8">
+        <v>-25453343414.131401</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8">
+        <v>-27298500000</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8">
+        <v>-24848700000</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8">
+        <v>-1.68598178371338E+34</v>
+      </c>
+      <c r="K38" s="25">
+        <v>-8.7210002980000007E-2</v>
+      </c>
+      <c r="L38" s="25"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="8">
+        <v>-25453343414.131401</v>
+      </c>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8">
+        <v>-25968868900</v>
+      </c>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8">
+        <v>-23755348570</v>
+      </c>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8">
+        <v>-1.68406108071533E+34</v>
+      </c>
+      <c r="W38" s="25">
+        <v>-8.7110651659999996E-2</v>
+      </c>
+      <c r="X38" s="5"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="8">
+        <v>146091299360.686</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8">
+        <v>145652000000</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8">
+        <v>145775000000</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P39" s="8">
+        <v>146091299360.686</v>
+      </c>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8">
+        <v>145893837200</v>
+      </c>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8">
+        <v>145956842800</v>
+      </c>
+      <c r="U39" s="8"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="8">
+        <v>-2712536.2576693301</v>
+      </c>
+      <c r="F40" s="8">
+        <v>-2715850</v>
+      </c>
+      <c r="H40" s="8">
+        <v>-2255600</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P40" s="8">
+        <v>-2712536.2576693301</v>
+      </c>
+      <c r="R40" s="8">
+        <v>-2715851.3360000001</v>
+      </c>
+      <c r="T40">
+        <v>-2254678.6409999998</v>
+      </c>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42">
+        <f>SQRT(($F$3-F38)^2+($F$4-F39)^2+($F$5-F40)^2)</f>
+        <v>506715769.05110264</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <f>SQRT(($H$3-H38)^2+($H$4-H39)^2+($H$5-H40)^2)</f>
+        <v>2612192836.4195728</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42">
+        <f>SQRT(($F$3-R38)^2+($F$4-R39)^2+($F$5-R40)^2)</f>
+        <v>1857386791.6498744</v>
+      </c>
+      <c r="S42" t="s">
+        <v>14</v>
+      </c>
+      <c r="T42">
+        <f>SQRT(($H$3-T38)^2+($H$4-T39)^2+($H$5-T40)^2)</f>
+        <v>3720190377.4916215</v>
+      </c>
+      <c r="U42" t="s">
+        <v>14</v>
+      </c>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="F43" s="18">
+        <f>F42/1000</f>
+        <v>506715.76905110263</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="18">
+        <f>H42/1000</f>
+        <v>2612192.8364195731</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="R43" s="18">
+        <f>R42/1000</f>
+        <v>1857386.7916498745</v>
+      </c>
+      <c r="S43" t="s">
+        <v>15</v>
+      </c>
+      <c r="T43" s="18">
+        <f>T42/1000</f>
+        <v>3720190.3774916213</v>
+      </c>
+      <c r="U43" t="s">
+        <v>15</v>
+      </c>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+    </row>
+    <row r="44" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="19">
+        <f>F42/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
+        <v>3.4200360889925785E-3</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="19">
+        <f>H42/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
+        <v>1.7669852030110938E-2</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="5"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="19">
+        <f>R42/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
+        <v>1.2536278218766215E-2</v>
+      </c>
+      <c r="S44" s="11"/>
+      <c r="T44" s="19">
+        <f>T42/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
+        <v>2.5164762944614807E-2</v>
+      </c>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="5"/>
+    </row>
+    <row r="45" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="12"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="12"/>
+    </row>
+    <row r="46" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="L46" s="39"/>
+    </row>
+    <row r="47" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="4"/>
+      <c r="C47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2">
+        <v>100</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="16">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="38"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="F48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="30">
+        <v>43831</v>
+      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="30">
+        <v>44197</v>
+      </c>
+      <c r="G50" s="31"/>
+      <c r="H50" s="30">
+        <v>44562</v>
+      </c>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="8">
+        <v>-25453343414.131401</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8">
+        <v>-27298500000</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8">
+        <v>-24848700000</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8">
+        <v>-1.68598178371338E+34</v>
+      </c>
+      <c r="K51" s="25">
+        <v>-8.7210002980000007E-2</v>
+      </c>
+      <c r="L51" s="25"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="8">
+        <v>146091299360.686</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8">
+        <v>145652000000</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8">
+        <v>145775000000</v>
+      </c>
+      <c r="I52" s="8"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="8">
+        <v>-2712536.2576693301</v>
+      </c>
+      <c r="F53" s="8">
+        <v>-2715850</v>
+      </c>
+      <c r="H53" s="8">
+        <v>-2255600</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <f>SQRT(($F$3-F51)^2+($F$4-F52)^2+($F$5-F53)^2)</f>
+        <v>506715769.05110264</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55">
+        <f>SQRT(($H$3-H51)^2+($H$4-H52)^2+($H$5-H53)^2)</f>
+        <v>2612192836.4195728</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="F56" s="18">
+        <f>F55/1000</f>
+        <v>506715.76905110263</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="18">
+        <f>H55/1000</f>
+        <v>2612192.8364195731</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="19">
+        <f>F55/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
+        <v>3.4200360889925785E-3</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="19">
+        <f>H55/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
+        <v>1.7669852030110938E-2</v>
+      </c>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F18:H18">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:H31">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:H44">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18:T18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2724,7 +2729,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:H31">
+  <conditionalFormatting sqref="R31:T31">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2734,8 +2739,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="R44:T44">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2744,28 +2749,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:S18">
+  <conditionalFormatting sqref="F57:H57">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q31:S31">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q44:S44">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/Auswertungen/EnergieVerlustVergleich.xlsx
+++ b/Auswertungen/EnergieVerlustVergleich.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3 Schule\Next\Auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D325FD-2AB9-4011-9E2E-790A663FC853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A14737-AE40-41AA-A380-F5FB4DDF0CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DB3ED3B1-9FAF-4FC8-B164-7AFB9A45769F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="24">
   <si>
     <t>Euler:</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Euler</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -769,7 +772,7 @@
   <dimension ref="A2:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9757DFD2-04D7-4074-A8E6-86A76DA00322}">
-  <dimension ref="B1:X58"/>
+  <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,12 +2121,8 @@
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F34" s="16">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="16"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2226,11 +2225,11 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8">
-        <v>-27298500000</v>
+        <v>-25986557480</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8">
-        <v>-24848700000</v>
+        <v>-23772865980</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8">
@@ -2249,11 +2248,11 @@
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8">
-        <v>-25968868900</v>
+        <v>-25986900000</v>
       </c>
       <c r="S38" s="8"/>
       <c r="T38" s="8">
-        <v>-23755348570</v>
+        <v>-23773600000</v>
       </c>
       <c r="U38" s="8"/>
       <c r="V38" s="8">
@@ -2274,11 +2273,11 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8">
-        <v>145652000000</v>
+        <v>145890642400</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8">
-        <v>145775000000</v>
+        <v>145954141400</v>
       </c>
       <c r="I39" s="8"/>
       <c r="K39" s="5"/>
@@ -2292,11 +2291,11 @@
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="8">
-        <v>145893837200</v>
+        <v>145891000000</v>
       </c>
       <c r="S39" s="8"/>
       <c r="T39" s="8">
-        <v>145956842800</v>
+        <v>145954000000</v>
       </c>
       <c r="U39" s="8"/>
       <c r="W39" s="5"/>
@@ -2311,10 +2310,10 @@
         <v>-2712536.2576693301</v>
       </c>
       <c r="F40" s="8">
-        <v>-2715850</v>
+        <v>-2715915.5970000001</v>
       </c>
       <c r="H40" s="8">
-        <v>-2255600</v>
+        <v>-2254540.6889999998</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -2326,7 +2325,7 @@
         <v>-2712536.2576693301</v>
       </c>
       <c r="R40" s="8">
-        <v>-2715851.3360000001</v>
+        <v>-2715650</v>
       </c>
       <c r="T40">
         <v>-2254678.6409999998</v>
@@ -2351,14 +2350,14 @@
       </c>
       <c r="F42">
         <f>SQRT(($F$3-F38)^2+($F$4-F39)^2+($F$5-F40)^2)</f>
-        <v>506715769.05110264</v>
+        <v>1839415232.0926788</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
       </c>
       <c r="H42">
         <f>SQRT(($H$3-H38)^2+($H$4-H39)^2+($H$5-H40)^2)</f>
-        <v>2612192836.4195728</v>
+        <v>3702475741.747838</v>
       </c>
       <c r="I42" t="s">
         <v>14</v>
@@ -2371,14 +2370,14 @@
       </c>
       <c r="R42">
         <f>SQRT(($F$3-R38)^2+($F$4-R39)^2+($F$5-R40)^2)</f>
-        <v>1857386791.6498744</v>
+        <v>1839149228.6461191</v>
       </c>
       <c r="S42" t="s">
         <v>14</v>
       </c>
       <c r="T42">
         <f>SQRT(($H$3-T38)^2+($H$4-T39)^2+($H$5-T40)^2)</f>
-        <v>3720190377.4916215</v>
+        <v>3701728246.7136521</v>
       </c>
       <c r="U42" t="s">
         <v>14</v>
@@ -2391,14 +2390,14 @@
       <c r="C43" s="4"/>
       <c r="F43" s="18">
         <f>F42/1000</f>
-        <v>506715.76905110263</v>
+        <v>1839415.2320926788</v>
       </c>
       <c r="G43" t="s">
         <v>15</v>
       </c>
       <c r="H43" s="18">
         <f>H42/1000</f>
-        <v>2612192.8364195731</v>
+        <v>3702475.741747838</v>
       </c>
       <c r="I43" t="s">
         <v>15</v>
@@ -2409,14 +2408,14 @@
       <c r="O43" s="4"/>
       <c r="R43" s="18">
         <f>R42/1000</f>
-        <v>1857386.7916498745</v>
+        <v>1839149.2286461191</v>
       </c>
       <c r="S43" t="s">
         <v>15</v>
       </c>
       <c r="T43" s="18">
         <f>T42/1000</f>
-        <v>3720190.3774916213</v>
+        <v>3701728.2467136523</v>
       </c>
       <c r="U43" t="s">
         <v>15</v>
@@ -2431,12 +2430,12 @@
       <c r="E44" s="11"/>
       <c r="F44" s="19">
         <f>F42/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
-        <v>3.4200360889925785E-3</v>
+        <v>1.2414980666933187E-2</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="19">
         <f>H42/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
-        <v>1.7669852030110938E-2</v>
+        <v>2.5044934504694187E-2</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
@@ -2448,12 +2447,12 @@
       <c r="Q44" s="11"/>
       <c r="R44" s="19">
         <f>R42/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
-        <v>1.2536278218766215E-2</v>
+        <v>1.2413185298715747E-2</v>
       </c>
       <c r="S44" s="11"/>
       <c r="T44" s="19">
         <f>T42/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
-        <v>2.5164762944614807E-2</v>
+        <v>2.5039878167940195E-2</v>
       </c>
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
@@ -2487,6 +2486,8 @@
     <row r="46" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="L46" s="39"/>
+      <c r="N46" s="4"/>
+      <c r="X46" s="39"/>
     </row>
     <row r="47" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
@@ -2494,22 +2495,35 @@
         <v>18</v>
       </c>
       <c r="D47" s="2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="16">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="16"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="38"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P47" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="16"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="38"/>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
@@ -2518,14 +2532,24 @@
       <c r="H48" s="17"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="R48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="30">
@@ -2545,8 +2569,27 @@
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="30">
+        <v>43831</v>
+      </c>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="30">
+        <v>44197</v>
+      </c>
+      <c r="S50" s="31"/>
+      <c r="T50" s="30">
+        <v>44562</v>
+      </c>
+      <c r="U50" s="31"/>
+      <c r="V50" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
         <v>10</v>
@@ -2556,11 +2599,11 @@
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8">
-        <v>-27298500000</v>
+        <v>-25971838080</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8">
-        <v>-24848700000</v>
+        <v>-23758308750</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8">
@@ -2570,8 +2613,31 @@
         <v>-8.7210002980000007E-2</v>
       </c>
       <c r="L51" s="25"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N51" s="4"/>
+      <c r="O51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="8">
+        <v>-25453343414.131401</v>
+      </c>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8">
+        <v>-27134984480</v>
+      </c>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8">
+        <v>-26132772810</v>
+      </c>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8">
+        <v>-1.68598178371338E+34</v>
+      </c>
+      <c r="W51" s="25">
+        <v>-8.7210002980000007E-2</v>
+      </c>
+      <c r="X51" s="25"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
         <v>11</v>
@@ -2581,17 +2647,35 @@
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8">
-        <v>145652000000</v>
+        <v>145893285400</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8">
-        <v>145775000000</v>
+        <v>145956451500</v>
       </c>
       <c r="I52" s="8"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N52" s="4"/>
+      <c r="O52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P52" s="8">
+        <v>146091299360.686</v>
+      </c>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8">
+        <v>145682645200</v>
+      </c>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8">
+        <v>145549697300</v>
+      </c>
+      <c r="U52" s="8"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
         <v>12</v>
@@ -2600,82 +2684,156 @@
         <v>-2712536.2576693301</v>
       </c>
       <c r="F53" s="8">
-        <v>-2715850</v>
+        <v>-2715743.7969999998</v>
       </c>
       <c r="H53" s="8">
-        <v>-2255600</v>
+        <v>-2254497.6009999998</v>
       </c>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N53" s="4"/>
+      <c r="O53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P53" s="8">
+        <v>-2712536.2576693301</v>
+      </c>
+      <c r="R53" s="8">
+        <v>-2715589.5060000001</v>
+      </c>
+      <c r="T53" s="8">
+        <v>-2256137.773</v>
+      </c>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F55">
         <f>SQRT(($F$3-F51)^2+($F$4-F52)^2+($F$5-F53)^2)</f>
-        <v>506715769.05110264</v>
+        <v>1854367075.111536</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
       </c>
       <c r="H55">
         <f>SQRT(($H$3-H51)^2+($H$4-H52)^2+($H$5-H53)^2)</f>
-        <v>2612192836.4195728</v>
+        <v>3717208905.3091784</v>
       </c>
       <c r="I55" t="s">
         <v>14</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N55" s="4"/>
+      <c r="O55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R55">
+        <f>SQRT(($F$3-R51)^2+($F$4-R52)^2+($F$5-R53)^2)</f>
+        <v>672853950.2313627</v>
+      </c>
+      <c r="S55" t="s">
+        <v>14</v>
+      </c>
+      <c r="T55">
+        <f>SQRT(($H$3-T51)^2+($H$4-T52)^2+($H$5-T53)^2)</f>
+        <v>1309162471.1822069</v>
+      </c>
+      <c r="U55" t="s">
+        <v>14</v>
+      </c>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="F56" s="18">
         <f>F55/1000</f>
-        <v>506715.76905110263</v>
+        <v>1854367.0751115361</v>
       </c>
       <c r="G56" t="s">
         <v>15</v>
       </c>
       <c r="H56" s="18">
         <f>H55/1000</f>
-        <v>2612192.8364195731</v>
+        <v>3717208.9053091784</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-    </row>
-    <row r="57" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="R56" s="18">
+        <f>R55/1000</f>
+        <v>672853.95023136272</v>
+      </c>
+      <c r="S56" t="s">
+        <v>15</v>
+      </c>
+      <c r="T56" s="18">
+        <f>T55/1000</f>
+        <v>1309162.4711822069</v>
+      </c>
+      <c r="U56" t="s">
+        <v>15</v>
+      </c>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="19">
         <f>F55/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
-        <v>3.4200360889925785E-3</v>
+        <v>1.2515896892250593E-2</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="19">
         <f>H55/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
-        <v>1.7669852030110938E-2</v>
+        <v>2.5144595148592568E-2</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="12"/>
       <c r="L57" s="5"/>
-    </row>
-    <row r="58" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N57" s="4"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="19">
+        <f>R55/SQRT($F$3^2+$F$4^2+$F$5^2)</f>
+        <v>4.5413719741182962E-3</v>
+      </c>
+      <c r="S57" s="11"/>
+      <c r="T57" s="19">
+        <f>T55/SQRT($H$3^2+$H$4^2+$H$5^2)</f>
+        <v>8.8556659472625449E-3</v>
+      </c>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="5"/>
+    </row>
+    <row r="58" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2687,10 +2845,26 @@
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
       <c r="L58" s="12"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="12"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F18:H18">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2700,7 +2874,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:H31">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2710,6 +2884,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F57:H57">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2720,6 +2904,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:T18">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31:T31">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44:T44">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2729,17 +2933,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R31:T31">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R44:T44">
+  <conditionalFormatting sqref="R57:T57">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2749,13 +2943,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:H57">
+  <conditionalFormatting sqref="H57 F57 R57 T57 R44 T44 F44 H44 F18 H18 R18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/Auswertungen/EnergieVerlustVergleich.xlsx
+++ b/Auswertungen/EnergieVerlustVergleich.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3 Schule\Next\Auswertungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-Repos\simulation\Auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A14737-AE40-41AA-A380-F5FB4DDF0CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DB3ED3B1-9FAF-4FC8-B164-7AFB9A45769F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Vergleich" sheetId="1" r:id="rId1"/>
     <sheet name="NASA Vergleich" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="33">
   <si>
     <t>Euler:</t>
   </si>
@@ -34,9 +33,6 @@
     <t>runge Kutta:</t>
   </si>
   <si>
-    <t>leapfrog:</t>
-  </si>
-  <si>
     <t>deltaTime</t>
   </si>
   <si>
@@ -98,12 +94,42 @@
   </si>
   <si>
     <t>ss</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>-0,001%</t>
+  </si>
+  <si>
+    <t>-2,26E-5%</t>
+  </si>
+  <si>
+    <t>DKD leapfrog:</t>
+  </si>
+  <si>
+    <t>KDK Leapfrog</t>
+  </si>
+  <si>
+    <t>partikel nach Partikel</t>
+  </si>
+  <si>
+    <t>-2,35E-10%</t>
+  </si>
+  <si>
+    <t>-0,000000000024%</t>
+  </si>
+  <si>
+    <t>-0,0000000019%</t>
+  </si>
+  <si>
+    <t>-1,766E-11%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
@@ -404,7 +430,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -449,6 +475,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Ausgabe" xfId="6" builtinId="21"/>
@@ -768,26 +798,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B721DBF9-AE77-4BFB-BF9C-ABE22F67535F}">
-  <dimension ref="A2:R31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AB31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
@@ -795,22 +829,25 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
-      <c r="N4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -828,48 +865,65 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4</v>
+      <c r="H9" t="s">
+        <v>23</v>
       </c>
       <c r="J9" t="s">
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
         <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
       </c>
       <c r="P9" t="s">
         <v>3</v>
       </c>
       <c r="Q9" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10">
         <v>10</v>
@@ -880,24 +934,41 @@
       <c r="F10" s="6">
         <v>-8.6368983495103798E+30</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>10</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>100000</v>
       </c>
-      <c r="O10">
+      <c r="L10">
+        <f>-2.29E+31</f>
+        <v>-2.29E+31</v>
+      </c>
+      <c r="M10" s="40">
+        <v>-8.5000000000000006E-3</v>
+      </c>
+      <c r="N10" s="42"/>
+      <c r="P10">
         <v>10</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>100000</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <v>3.3018388667247001E+27</v>
       </c>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>10</v>
+      </c>
+      <c r="U10">
+        <v>100000</v>
+      </c>
+      <c r="W10" s="41"/>
+      <c r="X10" s="42"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="42"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
       <c r="D11">
         <v>100</v>
@@ -908,24 +979,50 @@
       <c r="F11" s="6">
         <v>-1.05465784151321E+30</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>100</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>10000</v>
       </c>
-      <c r="O11">
+      <c r="L11" s="8">
+        <v>-2.7900000000000001E+30</v>
+      </c>
+      <c r="M11" s="40">
+        <v>-1E-3</v>
+      </c>
+      <c r="N11" s="42">
+        <v>792</v>
+      </c>
+      <c r="P11">
         <v>100</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>10000</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="R11" s="7">
         <v>-2.5090178695766899E+26</v>
       </c>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>100</v>
+      </c>
+      <c r="U11">
+        <v>10000</v>
+      </c>
+      <c r="V11" s="8">
+        <v>5.2200000000000002E+24</v>
+      </c>
+      <c r="W11" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="42">
+        <v>396</v>
+      </c>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="42"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
       <c r="D12">
         <v>1000</v>
@@ -936,25 +1033,44 @@
       <c r="F12" s="6">
         <v>-1.0764205093716899E+29</v>
       </c>
-      <c r="I12">
-        <v>1000</v>
-      </c>
       <c r="J12">
         <v>1000</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="O12">
+      <c r="K12">
         <v>1000</v>
+      </c>
+      <c r="L12" s="8">
+        <v>-2.84E+29</v>
+      </c>
+      <c r="M12" s="40">
+        <v>-1E-4</v>
+      </c>
+      <c r="N12" s="42">
+        <v>7992</v>
       </c>
       <c r="P12">
         <v>1000</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12">
+        <v>1000</v>
+      </c>
+      <c r="R12" s="9">
         <v>-3.1410744913864503E+26</v>
       </c>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>1000</v>
+      </c>
+      <c r="U12">
+        <v>1000</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="42"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="42"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
       <c r="D13">
         <v>10000</v>
@@ -965,24 +1081,50 @@
       <c r="F13" s="9">
         <v>-1.1067427619372699E+28</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>10000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>100</v>
       </c>
-      <c r="O13">
+      <c r="L13" s="8">
+        <v>-2.8799999999999999E+28</v>
+      </c>
+      <c r="M13" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="42">
+        <v>79992</v>
+      </c>
+      <c r="P13">
         <v>10000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>100</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="R13" s="9">
         <v>-3.1577904120513702E+26</v>
       </c>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>10000</v>
+      </c>
+      <c r="U13">
+        <v>100</v>
+      </c>
+      <c r="V13" s="8">
+        <v>6.4199999999999998E+22</v>
+      </c>
+      <c r="W13" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="X13" s="42">
+        <v>39996</v>
+      </c>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="42"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14">
         <v>100000</v>
@@ -993,24 +1135,56 @@
       <c r="F14" s="9">
         <v>-1.39125116563088E+27</v>
       </c>
-      <c r="I14">
+      <c r="G14" s="8">
+        <v>-5.1999999999999997E-5</v>
+      </c>
+      <c r="H14">
+        <v>199998</v>
+      </c>
+      <c r="J14">
         <v>100000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>10</v>
       </c>
-      <c r="O14">
+      <c r="L14" s="8">
+        <v>-3.17E+27</v>
+      </c>
+      <c r="M14" s="41">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="N14" s="42">
+        <v>799992</v>
+      </c>
+      <c r="P14">
         <v>100000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>10</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="R14" s="9">
         <v>-3.1589778693196503E+26</v>
       </c>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>100000</v>
+      </c>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14" s="8">
+        <v>6.2700000000000005E+21</v>
+      </c>
+      <c r="W14" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="X14" s="42">
+        <v>399996</v>
+      </c>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="42"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15">
         <v>1000000</v>
@@ -1021,24 +1195,47 @@
       <c r="F15" s="7">
         <v>-4.2344627093166798E+26</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="O15">
+      <c r="L15" s="8">
+        <v>-6.0569999999999999E+26</v>
+      </c>
+      <c r="M15" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="42">
+        <v>7999992</v>
+      </c>
+      <c r="P15">
         <v>1000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="R15" s="9">
         <v>-3.1589778693196503E+26</v>
       </c>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>1000000</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="8">
+        <v>4.715E+20</v>
+      </c>
+      <c r="W15" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="X15" s="42">
+        <v>3999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1049,7 +1246,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -1077,7 +1274,7 @@
     </row>
     <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19" s="5"/>
     </row>
@@ -1088,31 +1285,31 @@
     <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
+      <c r="I21" t="s">
         <v>3</v>
       </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
         <v>4</v>
       </c>
-      <c r="J21" t="s">
+      <c r="O21" t="s">
         <v>3</v>
       </c>
-      <c r="K21" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="s">
         <v>4</v>
-      </c>
-      <c r="P21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>5</v>
       </c>
       <c r="R21" s="5"/>
     </row>
@@ -1275,11 +1472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9757DFD2-04D7-4074-A8E6-86A76DA00322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1492,7 @@
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="28">
         <v>43831</v>
@@ -1311,7 +1508,7 @@
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="8">
         <v>-25453343414.131401</v>
@@ -1327,7 +1524,7 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8">
         <v>146091299360.686</v>
@@ -1343,7 +1540,7 @@
     </row>
     <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="22">
         <v>-2712536.2576693301</v>
@@ -1364,7 +1561,7 @@
     </row>
     <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1377,7 +1574,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="35"/>
       <c r="N7" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1393,19 +1590,19 @@
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="24">
         <v>86400</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="2"/>
@@ -1414,19 +1611,19 @@
       <c r="L8" s="36"/>
       <c r="N8" s="36"/>
       <c r="O8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P8" s="24">
         <v>86400</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R8" s="16">
         <v>1</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T8" s="16"/>
       <c r="U8" s="2"/>
@@ -1470,7 +1667,7 @@
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" s="36"/>
       <c r="N11" s="36"/>
@@ -1487,7 +1684,7 @@
       </c>
       <c r="U11" s="31"/>
       <c r="V11" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
@@ -1495,7 +1692,7 @@
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="8">
         <v>-25453343414.131401</v>
@@ -1518,7 +1715,7 @@
       <c r="L12" s="37"/>
       <c r="N12" s="36"/>
       <c r="O12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P12" s="8">
         <v>-25453343414.131401</v>
@@ -1543,7 +1740,7 @@
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="8">
         <v>146091299360.686</v>
@@ -1560,7 +1757,7 @@
       <c r="L13" s="36"/>
       <c r="N13" s="36"/>
       <c r="O13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P13" s="8">
         <v>146091299360.686</v>
@@ -1580,7 +1777,7 @@
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="8">
         <v>-2712536.2576693301</v>
@@ -1594,7 +1791,7 @@
       <c r="L14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P14" s="8">
         <v>-2712536.2576693301</v>
@@ -1619,40 +1816,40 @@
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <f>SQRT(($F$3-F12)^2+($F$4-F13)^2+($F$5-F14)^2)</f>
         <v>2096914241.9227929</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16">
         <f>SQRT(($H$3-H12)^2+($H$4-H13)^2+($H$5-H14)^2)</f>
         <v>4202497816.9329267</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L16" s="36"/>
       <c r="N16" s="36"/>
       <c r="O16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R16">
         <f>SQRT(($F$3-R12)^2+($F$4-R13)^2+($F$5-R14)^2)</f>
         <v>1951165876.3430951</v>
       </c>
       <c r="S16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T16">
         <f>SQRT(($H$3-T12)^2+($H$4-T13)^2+($H$5-T14)^2)</f>
         <v>3907441567.4765611</v>
       </c>
       <c r="U16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
@@ -1665,14 +1862,14 @@
         <v>2096914.241922793</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="18">
         <f>H16/1000</f>
         <v>4202497.8169329269</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="36"/>
       <c r="N17" s="36"/>
@@ -1681,14 +1878,14 @@
         <v>1951165.876343095</v>
       </c>
       <c r="S17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T17" s="18">
         <f>T16/1000</f>
         <v>3907441.5674765613</v>
       </c>
       <c r="U17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
@@ -1744,19 +1941,19 @@
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2">
         <v>3600</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="16">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="2"/>
@@ -1765,19 +1962,19 @@
       <c r="L21" s="36"/>
       <c r="N21" s="36"/>
       <c r="O21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P21" s="2">
         <v>3600</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R21" s="16">
         <v>1</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T21" s="16"/>
       <c r="U21" s="2"/>
@@ -1821,7 +2018,7 @@
       </c>
       <c r="I24" s="31"/>
       <c r="J24" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L24" s="36"/>
       <c r="N24" s="36"/>
@@ -1838,7 +2035,7 @@
       </c>
       <c r="U24" s="31"/>
       <c r="V24" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
@@ -1846,7 +2043,7 @@
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="8">
         <v>-25453343414.131401</v>
@@ -1869,7 +2066,7 @@
       <c r="L25" s="37"/>
       <c r="N25" s="36"/>
       <c r="O25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P25" s="8">
         <v>-25453343414.131401</v>
@@ -1894,7 +2091,7 @@
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="8">
         <v>146091299360.686</v>
@@ -1911,7 +2108,7 @@
       <c r="L26" s="36"/>
       <c r="N26" s="36"/>
       <c r="O26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P26" s="8">
         <v>146091299360.686</v>
@@ -1931,7 +2128,7 @@
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="8">
         <v>-2712536.2576693301</v>
@@ -1945,7 +2142,7 @@
       <c r="L27" s="36"/>
       <c r="N27" s="36"/>
       <c r="O27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P27" s="8">
         <v>-2712536.2576693301</v>
@@ -1970,40 +2167,40 @@
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29">
         <f>SQRT(($F$3-F25)^2+($F$4-F26)^2+($F$5-F27)^2)</f>
         <v>1858859195.3445516</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29">
         <f>SQRT(($H$3-H25)^2+($H$4-H26)^2+($H$5-H27)^2)</f>
         <v>3723238248.2321258</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L29" s="36"/>
       <c r="N29" s="36"/>
       <c r="O29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R29">
         <f>SQRT(($F$3-R25)^2+($F$4-R26)^2+($F$5-R27)^2)</f>
         <v>1857386791.6498744</v>
       </c>
       <c r="S29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T29">
         <f>SQRT(($H$3-T25)^2+($H$4-T26)^2+($H$5-T27)^2)</f>
         <v>3720190377.4916215</v>
       </c>
       <c r="U29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
@@ -2016,14 +2213,14 @@
         <v>1858859.1953445515</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30" s="18">
         <f>H29/1000</f>
         <v>3723238.2482321258</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L30" s="36"/>
       <c r="N30" s="36"/>
@@ -2032,14 +2229,14 @@
         <v>1857386.7916498745</v>
       </c>
       <c r="S30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T30" s="18">
         <f>T29/1000</f>
         <v>3720190.3774916213</v>
       </c>
       <c r="U30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
@@ -2113,13 +2310,13 @@
     <row r="34" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2">
         <v>1000</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="2"/>
@@ -2130,19 +2327,19 @@
       <c r="L34" s="38"/>
       <c r="N34" s="38"/>
       <c r="O34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P34" s="2">
         <v>1000</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R34" s="16">
         <v>1</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T34" s="16"/>
       <c r="U34" s="2"/>
@@ -2190,7 +2387,7 @@
       </c>
       <c r="I37" s="31"/>
       <c r="J37" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -2210,7 +2407,7 @@
       </c>
       <c r="U37" s="31"/>
       <c r="V37" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W37" s="5"/>
       <c r="X37" s="34"/>
@@ -2218,7 +2415,7 @@
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="8">
         <v>-25453343414.131401</v>
@@ -2241,7 +2438,7 @@
       <c r="L38" s="25"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P38" s="8">
         <v>-25453343414.131401</v>
@@ -2266,7 +2463,7 @@
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="8">
         <v>146091299360.686</v>
@@ -2284,7 +2481,7 @@
       <c r="L39" s="5"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P39" s="8">
         <v>146091299360.686</v>
@@ -2304,7 +2501,7 @@
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="8">
         <v>-2712536.2576693301</v>
@@ -2319,7 +2516,7 @@
       <c r="L40" s="5"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P40" s="8">
         <v>-2712536.2576693301</v>
@@ -2346,41 +2543,41 @@
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42">
         <f>SQRT(($F$3-F38)^2+($F$4-F39)^2+($F$5-F40)^2)</f>
         <v>1839415232.0926788</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H42">
         <f>SQRT(($H$3-H38)^2+($H$4-H39)^2+($H$5-H40)^2)</f>
         <v>3702475741.747838</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R42">
         <f>SQRT(($F$3-R38)^2+($F$4-R39)^2+($F$5-R40)^2)</f>
         <v>1839149228.6461191</v>
       </c>
       <c r="S42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T42">
         <f>SQRT(($H$3-T38)^2+($H$4-T39)^2+($H$5-T40)^2)</f>
         <v>3701728246.7136521</v>
       </c>
       <c r="U42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
@@ -2393,14 +2590,14 @@
         <v>1839415.2320926788</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H43" s="18">
         <f>H42/1000</f>
         <v>3702475.741747838</v>
       </c>
       <c r="I43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -2411,14 +2608,14 @@
         <v>1839149.2286461191</v>
       </c>
       <c r="S43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T43" s="18">
         <f>T42/1000</f>
         <v>3701728.2467136523</v>
       </c>
       <c r="U43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
@@ -2492,13 +2689,13 @@
     <row r="47" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2">
         <v>500</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="2"/>
@@ -2509,13 +2706,13 @@
       <c r="L47" s="38"/>
       <c r="N47" s="4"/>
       <c r="O47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P47" s="2">
         <v>500</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R47" s="16"/>
       <c r="S47" s="2"/>
@@ -2565,7 +2762,7 @@
       </c>
       <c r="I50" s="31"/>
       <c r="J50" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -2584,7 +2781,7 @@
       </c>
       <c r="U50" s="31"/>
       <c r="V50" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
@@ -2592,7 +2789,7 @@
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51" s="8">
         <v>-25453343414.131401</v>
@@ -2615,7 +2812,7 @@
       <c r="L51" s="25"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P51" s="8">
         <v>-25453343414.131401</v>
@@ -2640,7 +2837,7 @@
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="8">
         <v>146091299360.686</v>
@@ -2658,7 +2855,7 @@
       <c r="L52" s="5"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P52" s="8">
         <v>146091299360.686</v>
@@ -2678,7 +2875,7 @@
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="8">
         <v>-2712536.2576693301</v>
@@ -2693,7 +2890,7 @@
       <c r="L53" s="5"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P53" s="8">
         <v>-2712536.2576693301</v>
@@ -2720,41 +2917,41 @@
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F55">
         <f>SQRT(($F$3-F51)^2+($F$4-F52)^2+($F$5-F53)^2)</f>
         <v>1854367075.111536</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H55">
         <f>SQRT(($H$3-H51)^2+($H$4-H52)^2+($H$5-H53)^2)</f>
         <v>3717208905.3091784</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R55">
         <f>SQRT(($F$3-R51)^2+($F$4-R52)^2+($F$5-R53)^2)</f>
         <v>672853950.2313627</v>
       </c>
       <c r="S55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T55">
         <f>SQRT(($H$3-T51)^2+($H$4-T52)^2+($H$5-T53)^2)</f>
         <v>1309162471.1822069</v>
       </c>
       <c r="U55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
@@ -2767,14 +2964,14 @@
         <v>1854367.0751115361</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56" s="18">
         <f>H55/1000</f>
         <v>3717208.9053091784</v>
       </c>
       <c r="I56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -2785,14 +2982,14 @@
         <v>672853.95023136272</v>
       </c>
       <c r="S56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T56" s="18">
         <f>T55/1000</f>
         <v>1309162.4711822069</v>
       </c>
       <c r="U56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
@@ -2859,7 +3056,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2943,7 +3140,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57 F57 R57 T57 R44 T44 F44 H44 F18 H18 R18">
+  <conditionalFormatting sqref="F57 H57 R57 T57 R44 T44 F44 H44 F18 H18 R18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
